--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\eclipse-workspace\APITestingFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1207C367-58E2-4071-A8F5-A4DC38313215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA743A2-8A26-44B5-9710-1032579F9280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>cus_IMH5jjECcwnTSi</t>
+    <t>cus_IMH5ac89o6DxZW</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\eclipse-workspace\APITestingFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA743A2-8A26-44B5-9710-1032579F9280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AFFCD7-B788-4944-BB24-EE118F17159B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>cus_IMH5ac89o6DxZW</t>
+    <t>cus_IMDFIxjNdIWtbm</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\eclipse-workspace\APITestingFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AFFCD7-B788-4944-BB24-EE118F17159B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1225FBBD-4A6B-4AD1-B90F-4E1E16A201ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF5EDC37-8322-4DF8-80D3-341056306236}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>cus_IMDFIxjNdIWtbm</t>
+    <t>cus_IMDFUDgfY5oxs9</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
